--- a/word_features/季/ENG,2020-1~2020-4,文档_主题矩阵.xlsx
+++ b/word_features/季/ENG,2020-1~2020-4,文档_主题矩阵.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <si>
     <t>主题1</t>
   </si>
@@ -35,6 +35,441 @@
   </si>
   <si>
     <t>疫苗/4842.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4922.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4936.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4937.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4923.txt</t>
+  </si>
+  <si>
+    <t>疫苗/1495.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4843.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4857.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4880.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4894.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4882.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4896.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4841.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4855.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4869.txt</t>
+  </si>
+  <si>
+    <t>疫苗/5008.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4935.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4921.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4909.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4908.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4920.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4934.txt</t>
+  </si>
+  <si>
+    <t>疫苗/5009.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4868.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4854.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4840.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4897.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4883.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4887.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4893.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4878.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4844.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4850.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4918.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4930.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4924.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4925.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4931.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4919.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4851.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4845.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4879.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4892.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4886.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4890.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4884.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4853.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4847.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4927.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4933.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4932.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4926.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4846.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4852.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4885.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4891.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4835.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4821.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4809.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4982.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4996.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4941.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4799.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4955.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4969.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4968.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4954.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4798.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4940.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4997.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4983.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4808.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4820.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4834.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4822.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4836.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4995.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4981.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4956.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4942.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4943.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4957.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4980.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4994.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4837.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4823.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4827.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4833.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4990.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4984.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4953.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4947.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4946.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4952.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4985.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4991.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4832.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4826.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4818.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4830.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4824.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4987.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4993.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4978.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4944.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4950.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4788.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4789.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4951.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4945.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4979.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4992.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4986.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4825.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4831.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4819.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4814.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4800.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4828.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4960.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4974.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4784.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4948.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4790.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4791.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4949.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4785.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4975.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4961.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4829.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4801.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4815.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4803.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4817.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4988.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4977.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4963.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4793.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4787.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4786.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4792.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4962.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4976.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4989.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4816.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4802.txt</t>
   </si>
 </sst>
 </file>
@@ -392,7 +827,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -414,13 +849,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.005767831067075892</v>
+        <v>0.0112630433316181</v>
       </c>
       <c r="C2">
-        <v>0.005335577699334552</v>
+        <v>0.5706436139167042</v>
       </c>
       <c r="D2">
-        <v>0.9888965912335895</v>
+        <v>0.4180933427516779</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -428,13 +863,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.9837763423481851</v>
+        <v>0.7697201037613113</v>
       </c>
       <c r="C3">
-        <v>0.007970281476666457</v>
+        <v>0.1160692719274956</v>
       </c>
       <c r="D3">
-        <v>0.008253376175148297</v>
+        <v>0.1142106243111931</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -442,13 +877,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.008649743217022911</v>
+        <v>0.01127870521499079</v>
       </c>
       <c r="C4">
-        <v>0.007992485528146675</v>
+        <v>0.5772040489591715</v>
       </c>
       <c r="D4">
-        <v>0.9833577712548304</v>
+        <v>0.4115172458258376</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -456,13 +891,2043 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.0003516671240456396</v>
+        <v>0.0005984603411897323</v>
       </c>
       <c r="C5">
-        <v>0.0003394806595397815</v>
+        <v>0.9987980313743899</v>
       </c>
       <c r="D5">
-        <v>0.9993088522164146</v>
+        <v>0.0006035082844203208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0.05577773229429295</v>
+      </c>
+      <c r="C6">
+        <v>0.06287294751469955</v>
+      </c>
+      <c r="D6">
+        <v>0.8813493201910075</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0.4105030707053436</v>
+      </c>
+      <c r="C7">
+        <v>0.01794676475841195</v>
+      </c>
+      <c r="D7">
+        <v>0.5715501645362445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>0.3207131991769599</v>
+      </c>
+      <c r="C8">
+        <v>0.03347150758512164</v>
+      </c>
+      <c r="D8">
+        <v>0.6458152932379184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0.04419052458770777</v>
+      </c>
+      <c r="C9">
+        <v>0.02267488531370726</v>
+      </c>
+      <c r="D9">
+        <v>0.9331345900985849</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>0.1532172051905539</v>
+      </c>
+      <c r="C10">
+        <v>0.6733079747102773</v>
+      </c>
+      <c r="D10">
+        <v>0.1734748200991689</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>0.5645679650443767</v>
+      </c>
+      <c r="C11">
+        <v>0.01293473013506769</v>
+      </c>
+      <c r="D11">
+        <v>0.4224973048205555</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>0.3083133579742527</v>
+      </c>
+      <c r="C12">
+        <v>0.6238596116939071</v>
+      </c>
+      <c r="D12">
+        <v>0.06782703033184011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>0.004753451544741015</v>
+      </c>
+      <c r="C13">
+        <v>0.9903806774977207</v>
+      </c>
+      <c r="D13">
+        <v>0.004865870957538264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>0.02349791552285044</v>
+      </c>
+      <c r="C14">
+        <v>0.02386157666576201</v>
+      </c>
+      <c r="D14">
+        <v>0.9526405078113876</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>0.9363177578691368</v>
+      </c>
+      <c r="C15">
+        <v>0.03121656547930718</v>
+      </c>
+      <c r="D15">
+        <v>0.03246567665155596</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>0.007908821065627148</v>
+      </c>
+      <c r="C16">
+        <v>0.8231980075682831</v>
+      </c>
+      <c r="D16">
+        <v>0.1688931713660898</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>0.06265765863204335</v>
+      </c>
+      <c r="C17">
+        <v>0.2462874495959232</v>
+      </c>
+      <c r="D17">
+        <v>0.6910548917720335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>0.008272046488025039</v>
+      </c>
+      <c r="C18">
+        <v>0.7930901405404372</v>
+      </c>
+      <c r="D18">
+        <v>0.1986378129715378</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>0.9838999655212889</v>
+      </c>
+      <c r="C19">
+        <v>0.008128047945650375</v>
+      </c>
+      <c r="D19">
+        <v>0.007971986533060671</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>0.00679562460714481</v>
+      </c>
+      <c r="C20">
+        <v>0.59548493189059</v>
+      </c>
+      <c r="D20">
+        <v>0.3977194435022652</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>0.08482014750209683</v>
+      </c>
+      <c r="C21">
+        <v>0.01461111813776472</v>
+      </c>
+      <c r="D21">
+        <v>0.9005687343601384</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>0.02397695267215654</v>
+      </c>
+      <c r="C22">
+        <v>0.02734701696100525</v>
+      </c>
+      <c r="D22">
+        <v>0.9486760303668382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>0.2643780936563105</v>
+      </c>
+      <c r="C23">
+        <v>0.01091847583413012</v>
+      </c>
+      <c r="D23">
+        <v>0.7247034305095593</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>0.5267834001134314</v>
+      </c>
+      <c r="C24">
+        <v>0.4517979485747774</v>
+      </c>
+      <c r="D24">
+        <v>0.02141865131179108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>0.01761775326742009</v>
+      </c>
+      <c r="C25">
+        <v>0.9655799222973807</v>
+      </c>
+      <c r="D25">
+        <v>0.01680232443519928</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>0.02101188814546256</v>
+      </c>
+      <c r="C26">
+        <v>0.2139360419428518</v>
+      </c>
+      <c r="D26">
+        <v>0.7650520699116856</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>0.08631152454612549</v>
+      </c>
+      <c r="C27">
+        <v>0.08869305939506687</v>
+      </c>
+      <c r="D27">
+        <v>0.8249954160588077</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>0.0175899908924619</v>
+      </c>
+      <c r="C28">
+        <v>0.629949441243202</v>
+      </c>
+      <c r="D28">
+        <v>0.3524605678643361</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>0.02414353793781878</v>
+      </c>
+      <c r="C29">
+        <v>0.02788289464910281</v>
+      </c>
+      <c r="D29">
+        <v>0.9479735674130784</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>0.04786709549785347</v>
+      </c>
+      <c r="C30">
+        <v>0.5263785261835453</v>
+      </c>
+      <c r="D30">
+        <v>0.4257543783186013</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>0.01596512619865121</v>
+      </c>
+      <c r="C31">
+        <v>0.4410153593858643</v>
+      </c>
+      <c r="D31">
+        <v>0.5430195144154845</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>0.08412930465441243</v>
+      </c>
+      <c r="C32">
+        <v>0.08531662026520589</v>
+      </c>
+      <c r="D32">
+        <v>0.8305540750803817</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>0.01110209207786506</v>
+      </c>
+      <c r="C33">
+        <v>0.9791717997253599</v>
+      </c>
+      <c r="D33">
+        <v>0.00972610819677514</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>0.006058000301281852</v>
+      </c>
+      <c r="C34">
+        <v>0.9876010670239911</v>
+      </c>
+      <c r="D34">
+        <v>0.006340932674727018</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>0.004180430980823484</v>
+      </c>
+      <c r="C35">
+        <v>0.9917794038840759</v>
+      </c>
+      <c r="D35">
+        <v>0.004040165135100571</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>0.02902620435336493</v>
+      </c>
+      <c r="C36">
+        <v>0.02911690029038372</v>
+      </c>
+      <c r="D36">
+        <v>0.9418568953562514</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>0.3522034334761726</v>
+      </c>
+      <c r="C37">
+        <v>0.6422393055324205</v>
+      </c>
+      <c r="D37">
+        <v>0.005557260991406823</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>0.09173134638687856</v>
+      </c>
+      <c r="C38">
+        <v>0.6088216325892044</v>
+      </c>
+      <c r="D38">
+        <v>0.2994470210239171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>0.02405190284394187</v>
+      </c>
+      <c r="C39">
+        <v>0.02810823841029329</v>
+      </c>
+      <c r="D39">
+        <v>0.9478398587457649</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>0.03546445199376255</v>
+      </c>
+      <c r="C40">
+        <v>0.01252380294490001</v>
+      </c>
+      <c r="D40">
+        <v>0.9520117450613375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>0.01659958043751042</v>
+      </c>
+      <c r="C41">
+        <v>0.3340416900265733</v>
+      </c>
+      <c r="D41">
+        <v>0.6493587295359163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>0.01156830933043015</v>
+      </c>
+      <c r="C42">
+        <v>0.9770303597996152</v>
+      </c>
+      <c r="D42">
+        <v>0.01140133086995477</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>0.005019442241016583</v>
+      </c>
+      <c r="C43">
+        <v>0.9602371428343396</v>
+      </c>
+      <c r="D43">
+        <v>0.03474341492464389</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>0.01088907641798796</v>
+      </c>
+      <c r="C44">
+        <v>0.929473293046496</v>
+      </c>
+      <c r="D44">
+        <v>0.05963763053551617</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>0.08414855405422891</v>
+      </c>
+      <c r="C45">
+        <v>0.464341677404092</v>
+      </c>
+      <c r="D45">
+        <v>0.4515097685416792</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>0.01667109667883238</v>
+      </c>
+      <c r="C46">
+        <v>0.01671600202920345</v>
+      </c>
+      <c r="D46">
+        <v>0.9666129012919642</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>0.1673114458351445</v>
+      </c>
+      <c r="C47">
+        <v>0.8281421534331455</v>
+      </c>
+      <c r="D47">
+        <v>0.004546400731710069</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48">
+        <v>0.008141931858108577</v>
+      </c>
+      <c r="C48">
+        <v>0.689297287084768</v>
+      </c>
+      <c r="D48">
+        <v>0.3025607810571234</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>0.00530505489950614</v>
+      </c>
+      <c r="C49">
+        <v>0.9046858250372314</v>
+      </c>
+      <c r="D49">
+        <v>0.09000912006326249</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50">
+        <v>0.09071721875820379</v>
+      </c>
+      <c r="C50">
+        <v>0.4213460567088971</v>
+      </c>
+      <c r="D50">
+        <v>0.4879367245328991</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51">
+        <v>0.0213903156629346</v>
+      </c>
+      <c r="C51">
+        <v>0.02345011375773771</v>
+      </c>
+      <c r="D51">
+        <v>0.9551595705793277</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52">
+        <v>0.1688252580739311</v>
+      </c>
+      <c r="C52">
+        <v>0.3796887825684357</v>
+      </c>
+      <c r="D52">
+        <v>0.4514859593576331</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53">
+        <v>0.008096158602178945</v>
+      </c>
+      <c r="C53">
+        <v>0.5618660173599467</v>
+      </c>
+      <c r="D53">
+        <v>0.4300378240378744</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>0.01156830933043015</v>
+      </c>
+      <c r="C54">
+        <v>0.9770303597996152</v>
+      </c>
+      <c r="D54">
+        <v>0.01140133086995477</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>0.006768122432912089</v>
+      </c>
+      <c r="C55">
+        <v>0.9868590936262472</v>
+      </c>
+      <c r="D55">
+        <v>0.006372783940840691</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56">
+        <v>0.0414614485469716</v>
+      </c>
+      <c r="C56">
+        <v>0.05160095705486439</v>
+      </c>
+      <c r="D56">
+        <v>0.9069375943981639</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57">
+        <v>0.3242024447853855</v>
+      </c>
+      <c r="C57">
+        <v>0.5815092288983241</v>
+      </c>
+      <c r="D57">
+        <v>0.0942883263162904</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58">
+        <v>0.3426157616952303</v>
+      </c>
+      <c r="C58">
+        <v>0.6516651702756937</v>
+      </c>
+      <c r="D58">
+        <v>0.005719068029076075</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59">
+        <v>0.0006326380230643576</v>
+      </c>
+      <c r="C59">
+        <v>0.0006732191114697503</v>
+      </c>
+      <c r="D59">
+        <v>0.9986941428654659</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60">
+        <v>0.06760697300679455</v>
+      </c>
+      <c r="C60">
+        <v>0.5310541321139139</v>
+      </c>
+      <c r="D60">
+        <v>0.4013388948792914</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61">
+        <v>0.00804511404990994</v>
+      </c>
+      <c r="C61">
+        <v>0.7574813950241784</v>
+      </c>
+      <c r="D61">
+        <v>0.2344734909259117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62">
+        <v>0.1004949660128056</v>
+      </c>
+      <c r="C62">
+        <v>0.4242702830025389</v>
+      </c>
+      <c r="D62">
+        <v>0.4752347509846554</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63">
+        <v>0.02103776659430922</v>
+      </c>
+      <c r="C63">
+        <v>0.3275723120570442</v>
+      </c>
+      <c r="D63">
+        <v>0.6513899213486465</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64">
+        <v>0.09738098199832969</v>
+      </c>
+      <c r="C64">
+        <v>0.8954878004041276</v>
+      </c>
+      <c r="D64">
+        <v>0.007131217597542732</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65">
+        <v>0.0521181183329039</v>
+      </c>
+      <c r="C65">
+        <v>0.9399767288273712</v>
+      </c>
+      <c r="D65">
+        <v>0.007905152839724908</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66">
+        <v>0.05683624357465283</v>
+      </c>
+      <c r="C66">
+        <v>0.4067486312517303</v>
+      </c>
+      <c r="D66">
+        <v>0.5364151251736169</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67">
+        <v>0.04890673078234684</v>
+      </c>
+      <c r="C67">
+        <v>0.9066414205342902</v>
+      </c>
+      <c r="D67">
+        <v>0.04445184868336302</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68">
+        <v>0.01567986045204913</v>
+      </c>
+      <c r="C68">
+        <v>0.01770878555753291</v>
+      </c>
+      <c r="D68">
+        <v>0.966611353990418</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69">
+        <v>0.2533612103830543</v>
+      </c>
+      <c r="C69">
+        <v>0.02663459831062839</v>
+      </c>
+      <c r="D69">
+        <v>0.7200041913063173</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70">
+        <v>0.003956524049913629</v>
+      </c>
+      <c r="C70">
+        <v>0.5592349726035641</v>
+      </c>
+      <c r="D70">
+        <v>0.4368085033465222</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71">
+        <v>0.01738203104513184</v>
+      </c>
+      <c r="C71">
+        <v>0.01892273323044977</v>
+      </c>
+      <c r="D71">
+        <v>0.9636952357244184</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72">
+        <v>0.5766240176688591</v>
+      </c>
+      <c r="C72">
+        <v>0.3926747209879772</v>
+      </c>
+      <c r="D72">
+        <v>0.03070126134316374</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73">
+        <v>0.01808356159283921</v>
+      </c>
+      <c r="C73">
+        <v>0.01893182005748044</v>
+      </c>
+      <c r="D73">
+        <v>0.9629846183496804</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74">
+        <v>0.1961708432538567</v>
+      </c>
+      <c r="C74">
+        <v>0.4095474415943917</v>
+      </c>
+      <c r="D74">
+        <v>0.3942817151517516</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75">
+        <v>0.06193193068774434</v>
+      </c>
+      <c r="C75">
+        <v>0.2395302364925702</v>
+      </c>
+      <c r="D75">
+        <v>0.6985378328196853</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76">
+        <v>0.2565626289257038</v>
+      </c>
+      <c r="C76">
+        <v>0.7266952907559953</v>
+      </c>
+      <c r="D76">
+        <v>0.01674208031830087</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77">
+        <v>0.01463615955406991</v>
+      </c>
+      <c r="C77">
+        <v>0.9702082594749677</v>
+      </c>
+      <c r="D77">
+        <v>0.0151555809709624</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78">
+        <v>0.9726110381257157</v>
+      </c>
+      <c r="C78">
+        <v>0.01190359523963156</v>
+      </c>
+      <c r="D78">
+        <v>0.01548536663465268</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79">
+        <v>0.003405478950318324</v>
+      </c>
+      <c r="C79">
+        <v>0.9934582196837904</v>
+      </c>
+      <c r="D79">
+        <v>0.003136301365891137</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80">
+        <v>0.01714057075659512</v>
+      </c>
+      <c r="C80">
+        <v>0.7074053240967718</v>
+      </c>
+      <c r="D80">
+        <v>0.2754541051466331</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81">
+        <v>0.3914845614836111</v>
+      </c>
+      <c r="C81">
+        <v>0.3956910763118268</v>
+      </c>
+      <c r="D81">
+        <v>0.2128243622045621</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82">
+        <v>0.4719838572862808</v>
+      </c>
+      <c r="C82">
+        <v>0.4950283237770854</v>
+      </c>
+      <c r="D82">
+        <v>0.0329878189366338</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83">
+        <v>0.004120085173446865</v>
+      </c>
+      <c r="C83">
+        <v>0.5606723544187381</v>
+      </c>
+      <c r="D83">
+        <v>0.4352075604078149</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84">
+        <v>0.0169858545972713</v>
+      </c>
+      <c r="C84">
+        <v>0.2585470906121992</v>
+      </c>
+      <c r="D84">
+        <v>0.7244670547905295</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85">
+        <v>0.2564854680866661</v>
+      </c>
+      <c r="C85">
+        <v>0.02201053775208656</v>
+      </c>
+      <c r="D85">
+        <v>0.7215039941612472</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86">
+        <v>0.004082511640293236</v>
+      </c>
+      <c r="C86">
+        <v>0.8614880310553312</v>
+      </c>
+      <c r="D86">
+        <v>0.1344294573043756</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87">
+        <v>0.2135174875457434</v>
+      </c>
+      <c r="C87">
+        <v>0.01210546751737504</v>
+      </c>
+      <c r="D87">
+        <v>0.7743770449368816</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88">
+        <v>0.05935374881620568</v>
+      </c>
+      <c r="C88">
+        <v>0.009986057261485083</v>
+      </c>
+      <c r="D88">
+        <v>0.9306601939223094</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89">
+        <v>0.0106767732802074</v>
+      </c>
+      <c r="C89">
+        <v>0.5870388060538877</v>
+      </c>
+      <c r="D89">
+        <v>0.4022844206659051</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90">
+        <v>0.01396795461911746</v>
+      </c>
+      <c r="C90">
+        <v>0.9714849196790111</v>
+      </c>
+      <c r="D90">
+        <v>0.01454712570187144</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91">
+        <v>0.00811257426992308</v>
+      </c>
+      <c r="C91">
+        <v>0.07068668746895095</v>
+      </c>
+      <c r="D91">
+        <v>0.921200738261126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92">
+        <v>0.4448887068258389</v>
+      </c>
+      <c r="C92">
+        <v>0.03418869867249382</v>
+      </c>
+      <c r="D92">
+        <v>0.5209225945016673</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93">
+        <v>0.01695577453115637</v>
+      </c>
+      <c r="C93">
+        <v>0.5011461561836396</v>
+      </c>
+      <c r="D93">
+        <v>0.4818980692852041</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94">
+        <v>0.08510216476625355</v>
+      </c>
+      <c r="C94">
+        <v>0.5571753793279336</v>
+      </c>
+      <c r="D94">
+        <v>0.3577224559058129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95">
+        <v>0.0555790048674186</v>
+      </c>
+      <c r="C95">
+        <v>0.06164244415406712</v>
+      </c>
+      <c r="D95">
+        <v>0.8827785509785143</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96">
+        <v>0.0401664535122684</v>
+      </c>
+      <c r="C96">
+        <v>0.02955816556871603</v>
+      </c>
+      <c r="D96">
+        <v>0.9302753809190156</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97">
+        <v>0.0190598150155132</v>
+      </c>
+      <c r="C97">
+        <v>0.2557728289310757</v>
+      </c>
+      <c r="D97">
+        <v>0.7251673560534111</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98">
+        <v>0.002769753032964087</v>
+      </c>
+      <c r="C98">
+        <v>0.9427463587170822</v>
+      </c>
+      <c r="D98">
+        <v>0.05448388824995359</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99">
+        <v>0.2171070118327812</v>
+      </c>
+      <c r="C99">
+        <v>0.01405086025167973</v>
+      </c>
+      <c r="D99">
+        <v>0.7688421279155391</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100">
+        <v>0.0218290791166942</v>
+      </c>
+      <c r="C100">
+        <v>0.01149651305640693</v>
+      </c>
+      <c r="D100">
+        <v>0.9666744078268988</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101">
+        <v>0.06270407921986992</v>
+      </c>
+      <c r="C101">
+        <v>0.06393146015391438</v>
+      </c>
+      <c r="D101">
+        <v>0.8733644606262158</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102">
+        <v>0.01000997187853902</v>
+      </c>
+      <c r="C102">
+        <v>0.9798900927196426</v>
+      </c>
+      <c r="D102">
+        <v>0.01009993540181858</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103">
+        <v>0.1814156712969815</v>
+      </c>
+      <c r="C103">
+        <v>0.4725731014824438</v>
+      </c>
+      <c r="D103">
+        <v>0.3460112272205747</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104">
+        <v>0.3466195907149207</v>
+      </c>
+      <c r="C104">
+        <v>0.1815459319827072</v>
+      </c>
+      <c r="D104">
+        <v>0.4718344773023722</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105">
+        <v>0.1113261968952341</v>
+      </c>
+      <c r="C105">
+        <v>0.1560117445902908</v>
+      </c>
+      <c r="D105">
+        <v>0.7326620585144752</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106">
+        <v>0.1650479068184571</v>
+      </c>
+      <c r="C106">
+        <v>0.1568180497910365</v>
+      </c>
+      <c r="D106">
+        <v>0.6781340433905064</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107">
+        <v>0.3998287807951227</v>
+      </c>
+      <c r="C107">
+        <v>0.1131151571695524</v>
+      </c>
+      <c r="D107">
+        <v>0.4870560620353249</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108">
+        <v>0.2448998224061782</v>
+      </c>
+      <c r="C108">
+        <v>0.5928225736995942</v>
+      </c>
+      <c r="D108">
+        <v>0.1622776038942277</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109">
+        <v>0.01271542244381259</v>
+      </c>
+      <c r="C109">
+        <v>0.3811169903540589</v>
+      </c>
+      <c r="D109">
+        <v>0.6061675872021286</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110">
+        <v>0.003712578109330052</v>
+      </c>
+      <c r="C110">
+        <v>0.9922619285007077</v>
+      </c>
+      <c r="D110">
+        <v>0.004025493389962212</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111">
+        <v>0.09615369110332166</v>
+      </c>
+      <c r="C111">
+        <v>0.8203188417555967</v>
+      </c>
+      <c r="D111">
+        <v>0.08352746714108174</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112">
+        <v>0.08343280122876247</v>
+      </c>
+      <c r="C112">
+        <v>0.8056452066655306</v>
+      </c>
+      <c r="D112">
+        <v>0.1109219921057068</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113">
+        <v>0.02827665494726042</v>
+      </c>
+      <c r="C113">
+        <v>0.03465388993220624</v>
+      </c>
+      <c r="D113">
+        <v>0.9370694551205333</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114">
+        <v>0.08298911476718131</v>
+      </c>
+      <c r="C114">
+        <v>0.01134607629355063</v>
+      </c>
+      <c r="D114">
+        <v>0.905664808939268</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115">
+        <v>0.005460820871302832</v>
+      </c>
+      <c r="C115">
+        <v>0.8252119554640578</v>
+      </c>
+      <c r="D115">
+        <v>0.1693272236646392</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116">
+        <v>0.1427781744834178</v>
+      </c>
+      <c r="C116">
+        <v>0.3063460797757744</v>
+      </c>
+      <c r="D116">
+        <v>0.5508757457408078</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117">
+        <v>0.04859484094885377</v>
+      </c>
+      <c r="C117">
+        <v>0.06094218714676693</v>
+      </c>
+      <c r="D117">
+        <v>0.8904629719043793</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118">
+        <v>0.06839679898201256</v>
+      </c>
+      <c r="C118">
+        <v>0.8675485370515568</v>
+      </c>
+      <c r="D118">
+        <v>0.06405466396643056</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119">
+        <v>0.02257774601250461</v>
+      </c>
+      <c r="C119">
+        <v>0.02226341766293059</v>
+      </c>
+      <c r="D119">
+        <v>0.9551588363245648</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120">
+        <v>0.9456357032125786</v>
+      </c>
+      <c r="C120">
+        <v>0.02569503892957158</v>
+      </c>
+      <c r="D120">
+        <v>0.02866925785784974</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121">
+        <v>0.5274758959240263</v>
+      </c>
+      <c r="C121">
+        <v>0.02197977555002421</v>
+      </c>
+      <c r="D121">
+        <v>0.4505443285259495</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122">
+        <v>0.004038051571930855</v>
+      </c>
+      <c r="C122">
+        <v>0.9334178397864136</v>
+      </c>
+      <c r="D122">
+        <v>0.06254410864165551</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123">
+        <v>0.009911877079507745</v>
+      </c>
+      <c r="C123">
+        <v>0.9784922954986803</v>
+      </c>
+      <c r="D123">
+        <v>0.01159582742181182</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124">
+        <v>0.010583011325039</v>
+      </c>
+      <c r="C124">
+        <v>0.5827903269425454</v>
+      </c>
+      <c r="D124">
+        <v>0.4066266617324157</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125">
+        <v>0.03449339869656647</v>
+      </c>
+      <c r="C125">
+        <v>0.3215000478380496</v>
+      </c>
+      <c r="D125">
+        <v>0.6440065534653838</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126">
+        <v>0.03334458995371139</v>
+      </c>
+      <c r="C126">
+        <v>0.6504379172055075</v>
+      </c>
+      <c r="D126">
+        <v>0.3162174928407812</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127">
+        <v>0.9180466007756161</v>
+      </c>
+      <c r="C127">
+        <v>0.03846798789347532</v>
+      </c>
+      <c r="D127">
+        <v>0.04348541133090861</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128">
+        <v>0.01719194077719908</v>
+      </c>
+      <c r="C128">
+        <v>0.1162613107575946</v>
+      </c>
+      <c r="D128">
+        <v>0.8665467484652063</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129">
+        <v>0.05624997968207818</v>
+      </c>
+      <c r="C129">
+        <v>0.04940464388376142</v>
+      </c>
+      <c r="D129">
+        <v>0.8943453764341605</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130">
+        <v>0.3085897843683793</v>
+      </c>
+      <c r="C130">
+        <v>0.01076608615558191</v>
+      </c>
+      <c r="D130">
+        <v>0.6806441294760387</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131">
+        <v>0.01996305568949562</v>
+      </c>
+      <c r="C131">
+        <v>0.960401132567296</v>
+      </c>
+      <c r="D131">
+        <v>0.01963581174320837</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132">
+        <v>0.006644989801932988</v>
+      </c>
+      <c r="C132">
+        <v>0.2616808503269279</v>
+      </c>
+      <c r="D132">
+        <v>0.7316741598711393</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B133">
+        <v>0.007943790643857683</v>
+      </c>
+      <c r="C133">
+        <v>0.4323285187141089</v>
+      </c>
+      <c r="D133">
+        <v>0.5597276906420333</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134">
+        <v>0.2060842335560635</v>
+      </c>
+      <c r="C134">
+        <v>0.3500129448461227</v>
+      </c>
+      <c r="D134">
+        <v>0.443902821597814</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135">
+        <v>0.0773198414966344</v>
+      </c>
+      <c r="C135">
+        <v>0.01474228984167523</v>
+      </c>
+      <c r="D135">
+        <v>0.9079378686616904</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136">
+        <v>0.008505725210064794</v>
+      </c>
+      <c r="C136">
+        <v>0.1961786432975955</v>
+      </c>
+      <c r="D136">
+        <v>0.7953156314923397</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137">
+        <v>0.4992243419225261</v>
+      </c>
+      <c r="C137">
+        <v>0.4789705942972943</v>
+      </c>
+      <c r="D137">
+        <v>0.02180506378017964</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138">
+        <v>0.7830516759169853</v>
+      </c>
+      <c r="C138">
+        <v>0.02842751730955281</v>
+      </c>
+      <c r="D138">
+        <v>0.1885208067734618</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139">
+        <v>0.008203280392768885</v>
+      </c>
+      <c r="C139">
+        <v>0.9813726528663623</v>
+      </c>
+      <c r="D139">
+        <v>0.01042406674086879</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140">
+        <v>0.006434846840278909</v>
+      </c>
+      <c r="C140">
+        <v>0.3329614276194089</v>
+      </c>
+      <c r="D140">
+        <v>0.6606037255403122</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141">
+        <v>0.1324607361607915</v>
+      </c>
+      <c r="C141">
+        <v>0.1128571781997055</v>
+      </c>
+      <c r="D141">
+        <v>0.7546820856395029</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B142">
+        <v>0.005451396049486976</v>
+      </c>
+      <c r="C142">
+        <v>0.929035585501605</v>
+      </c>
+      <c r="D142">
+        <v>0.06551301844890793</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B143">
+        <v>0.6482368353631095</v>
+      </c>
+      <c r="C143">
+        <v>0.3403410217580775</v>
+      </c>
+      <c r="D143">
+        <v>0.01142214287881295</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B144">
+        <v>0.00869734541432338</v>
+      </c>
+      <c r="C144">
+        <v>0.9828943793238671</v>
+      </c>
+      <c r="D144">
+        <v>0.008408275261809508</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B145">
+        <v>0.003261199694113865</v>
+      </c>
+      <c r="C145">
+        <v>0.9936283971199978</v>
+      </c>
+      <c r="D145">
+        <v>0.003110403185888383</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B146">
+        <v>0.1129279581637713</v>
+      </c>
+      <c r="C146">
+        <v>0.672612363315782</v>
+      </c>
+      <c r="D146">
+        <v>0.2144596785204467</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B147">
+        <v>0.005807163558647091</v>
+      </c>
+      <c r="C147">
+        <v>0.2719749561473332</v>
+      </c>
+      <c r="D147">
+        <v>0.7222178802940197</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148">
+        <v>0.008080725624947565</v>
+      </c>
+      <c r="C148">
+        <v>0.4957445282740106</v>
+      </c>
+      <c r="D148">
+        <v>0.4961747461010418</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B149">
+        <v>0.01375919600922478</v>
+      </c>
+      <c r="C149">
+        <v>0.1009798770234165</v>
+      </c>
+      <c r="D149">
+        <v>0.8852609269673588</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B150">
+        <v>0.01452373731171493</v>
+      </c>
+      <c r="C150">
+        <v>0.4075254119629624</v>
+      </c>
+      <c r="D150">
+        <v>0.5779508507253228</v>
       </c>
     </row>
   </sheetData>
